--- a/src/test/java/excel/export/export6.xlsx
+++ b/src/test/java/excel/export/export6.xlsx
@@ -895,7 +895,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>43784.433912465276</v>
+        <v>44029.773285972224</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>19</v>
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>43784.433912465276</v>
+        <v>44029.77328599537</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>19</v>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>43784.43391247685</v>
+        <v>44029.773286006945</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>19</v>
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>43784.43391247685</v>
+        <v>44029.77328601852</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>19</v>
@@ -1035,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>43784.43391248843</v>
+        <v>44029.77328603009</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>19</v>
@@ -1070,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>43784.43391248843</v>
+        <v>44029.77328605324</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>19</v>
@@ -1105,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>43784.4339125</v>
+        <v>44029.77328606482</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>19</v>
@@ -1140,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>43784.4339125</v>
+        <v>44029.77328608796</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>19</v>
@@ -1175,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>43784.43391251157</v>
+        <v>44029.77328609954</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>19</v>
@@ -1210,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>43784.43391251157</v>
+        <v>44029.773286111114</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>19</v>
